--- a/Sray/Analysis/MY/MY_Descriptive Statistics.xlsx
+++ b/Sray/Analysis/MY/MY_Descriptive Statistics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sec_no_count" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="kurtosis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sec_no_count" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="kurtosis" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -100,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -475,7 +478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,50 +559,70 @@
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>ret</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>historical_market_cap</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>trail_12m_sales_per_sh</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>is_eps</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>fcf</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>pe</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>return_com_eqy</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>roa</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>VOLATILITY_180D</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>volatility_360d</t>
+          <t>roa_sec_mean</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>roa_sec_sd</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>roa_z</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>vol_180d</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>vol_360d</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>beta</t>
         </is>
@@ -612,76 +635,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7560</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>7560</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>7560</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>7560</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>7560</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>4935</v>
+        <v>558</v>
       </c>
       <c r="H2" t="n">
-        <v>4935</v>
+        <v>558</v>
       </c>
       <c r="I2" t="n">
-        <v>4935</v>
+        <v>558</v>
       </c>
       <c r="J2" t="n">
-        <v>4935</v>
+        <v>558</v>
       </c>
       <c r="K2" t="n">
-        <v>4935</v>
+        <v>558</v>
       </c>
       <c r="L2" t="n">
-        <v>4935</v>
+        <v>558</v>
       </c>
       <c r="M2" t="n">
-        <v>4935</v>
+        <v>558</v>
       </c>
       <c r="N2" t="n">
-        <v>4935</v>
+        <v>558</v>
       </c>
       <c r="O2" t="n">
-        <v>7420</v>
+        <v>826</v>
       </c>
       <c r="P2" t="n">
-        <v>7378</v>
+        <v>706</v>
       </c>
       <c r="Q2" t="n">
-        <v>7336</v>
+        <v>824</v>
       </c>
       <c r="R2" t="n">
-        <v>7413</v>
+        <v>820</v>
       </c>
       <c r="S2" t="n">
-        <v>7399</v>
+        <v>826</v>
       </c>
       <c r="T2" t="n">
-        <v>7203</v>
+        <v>825</v>
       </c>
       <c r="U2" t="n">
-        <v>7308</v>
+        <v>804</v>
       </c>
       <c r="V2" t="n">
-        <v>7308</v>
+        <v>816</v>
       </c>
       <c r="W2" t="n">
-        <v>7385</v>
+        <v>816</v>
       </c>
       <c r="X2" t="n">
-        <v>7343</v>
+        <v>840</v>
       </c>
       <c r="Y2" t="n">
-        <v>7392</v>
+        <v>840</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>816</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>823</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>818</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>824</v>
       </c>
     </row>
     <row r="3">
@@ -716,10 +751,8 @@
           <t>BAB MK Equity</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2017-12</t>
-        </is>
+      <c r="F4" s="2" t="n">
+        <v>43100</v>
       </c>
     </row>
     <row r="5">
@@ -729,502 +762,606 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>1680</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>5.641666666666667</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2019.888888888889</v>
-      </c>
-      <c r="G6" t="n">
-        <v>45.10985020576639</v>
-      </c>
-      <c r="H6" t="n">
-        <v>81.93419401561115</v>
-      </c>
-      <c r="I6" t="n">
-        <v>28.31986927681781</v>
-      </c>
-      <c r="J6" t="n">
-        <v>24.93793528071532</v>
-      </c>
-      <c r="K6" t="n">
-        <v>821.0798627348896</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2089.079799137132</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2358.252098913286</v>
-      </c>
-      <c r="N6" t="n">
-        <v>104642.3270298212</v>
-      </c>
-      <c r="O6" t="n">
-        <v>5.476816037735849</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11111.57839326376</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.340650381679389</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.06564296506137866</v>
-      </c>
-      <c r="S6" t="n">
-        <v>230.0845273415326</v>
-      </c>
-      <c r="T6" t="n">
-        <v>36.52685247813412</v>
-      </c>
-      <c r="U6" t="n">
-        <v>14.27193745210728</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5.346423371647509</v>
-      </c>
-      <c r="W6" t="n">
-        <v>32.95077819905213</v>
-      </c>
-      <c r="X6" t="n">
-        <v>33.18088751191611</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1.002108428030303</v>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>43100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2.980118337404492</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.131621661958878</v>
-      </c>
-      <c r="G7" t="n">
-        <v>9.717206700390031</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7.217105542709207</v>
-      </c>
-      <c r="I7" t="n">
-        <v>11.15699316727736</v>
-      </c>
-      <c r="J7" t="n">
-        <v>16.64528756687918</v>
-      </c>
-      <c r="K7" t="n">
-        <v>705.8195339821149</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1453.219704182898</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1032.504251803079</v>
-      </c>
-      <c r="N7" t="n">
-        <v>64780.22479376684</v>
-      </c>
-      <c r="O7" t="n">
-        <v>13.18799637890754</v>
-      </c>
-      <c r="P7" t="n">
-        <v>16927.95085554829</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6.658627807118261</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.189294484544043</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1142.949028002957</v>
-      </c>
-      <c r="T7" t="n">
-        <v>87.1674941199411</v>
-      </c>
-      <c r="U7" t="n">
-        <v>31.82947897584471</v>
-      </c>
-      <c r="V7" t="n">
-        <v>10.21874061987156</v>
-      </c>
-      <c r="W7" t="n">
-        <v>17.73509674694031</v>
-      </c>
-      <c r="X7" t="n">
-        <v>16.39165077095284</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.002007556298776</v>
+          <t>last</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>44957</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>5.641666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="G8" t="n">
-        <v>18.97193336486816</v>
+        <v>44.73820266245087</v>
       </c>
       <c r="H8" t="n">
-        <v>56.77302932739258</v>
+        <v>81.78468150477255</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>28.03538069032854</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>24.25633469261362</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>790.1613223617513</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2030.27490139817</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2330.406714946188</v>
       </c>
       <c r="N8" t="n">
-        <v>6828.648712995553</v>
+        <v>102031.7176364331</v>
       </c>
       <c r="O8" t="n">
-        <v>0.034</v>
+        <v>5.494443099273608</v>
       </c>
       <c r="P8" t="n">
-        <v>51.7697</v>
+        <v>0.04069186355696734</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0146</v>
+        <v>11087.91653070388</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.1349</v>
+        <v>3.292713902439024</v>
       </c>
       <c r="S8" t="n">
-        <v>-5062.97</v>
+        <v>0.06364225181598064</v>
       </c>
       <c r="T8" t="n">
-        <v>1.4856</v>
+        <v>242.5477006060607</v>
       </c>
       <c r="U8" t="n">
-        <v>-104.6802</v>
+        <v>38.88779303482587</v>
       </c>
       <c r="V8" t="n">
-        <v>-52.0058</v>
+        <v>13.81775355392157</v>
       </c>
       <c r="W8" t="n">
-        <v>5.552</v>
+        <v>5.17173455882353</v>
       </c>
       <c r="X8" t="n">
-        <v>5.899</v>
+        <v>5.215223611237969</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.9467</v>
+        <v>8.135234383184848</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-8.707631565687502e-18</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>33.87133535844472</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34.23687041564792</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>1.025577791262136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>std</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2.981696581040825</v>
       </c>
       <c r="E9" t="n">
-        <v>2018</v>
+        <v>2.001191540171235</v>
       </c>
       <c r="G9" t="n">
-        <v>37.40066528320312</v>
+        <v>9.61846484809254</v>
       </c>
       <c r="H9" t="n">
-        <v>80.52378082275391</v>
+        <v>7.162995344621013</v>
       </c>
       <c r="I9" t="n">
-        <v>21.28174018859863</v>
+        <v>11.00422277913183</v>
       </c>
       <c r="J9" t="n">
-        <v>11.235276222229</v>
+        <v>16.49762765407057</v>
       </c>
       <c r="K9" t="n">
-        <v>231.3931288357117</v>
+        <v>690.9882089974645</v>
       </c>
       <c r="L9" t="n">
-        <v>921.5310095460883</v>
+        <v>1441.044373533191</v>
       </c>
       <c r="M9" t="n">
-        <v>1619.952279705438</v>
+        <v>1014.813345304083</v>
       </c>
       <c r="N9" t="n">
-        <v>52316.41576425979</v>
+        <v>63497.1576887623</v>
       </c>
       <c r="O9" t="n">
-        <v>0.97</v>
+        <v>13.41735381479164</v>
       </c>
       <c r="P9" t="n">
-        <v>1801.9426</v>
+        <v>0.5887179515468262</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.63395</v>
+        <v>16831.22619785517</v>
       </c>
       <c r="R9" t="n">
-        <v>0.008</v>
+        <v>6.510957866474074</v>
       </c>
       <c r="S9" t="n">
-        <v>-30.7</v>
+        <v>0.1836595819853797</v>
       </c>
       <c r="T9" t="n">
-        <v>12.0209</v>
+        <v>1175.336078036073</v>
       </c>
       <c r="U9" t="n">
-        <v>3.7283</v>
+        <v>94.16957604812269</v>
       </c>
       <c r="V9" t="n">
-        <v>0.990625</v>
+        <v>31.40023514754845</v>
       </c>
       <c r="W9" t="n">
-        <v>21.199</v>
+        <v>10.39298459044059</v>
       </c>
       <c r="X9" t="n">
-        <v>21.842</v>
+        <v>4.128103448657374</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.408275</v>
+        <v>5.901916153417702</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9522334095470861</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>18.21538871345567</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16.87365509578861</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>1.052169606702275</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>min</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="G10" t="n">
-        <v>45.88069534301758</v>
+        <v>18.97193336486816</v>
       </c>
       <c r="H10" t="n">
-        <v>81.09572601318359</v>
+        <v>56.77302932739258</v>
       </c>
       <c r="I10" t="n">
-        <v>28.53688049316406</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.03775215148926</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>742.6931052672372</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2052.904725536005</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>2291.815150010807</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>96580.6165763032</v>
+        <v>6828.648712995553</v>
       </c>
       <c r="O10" t="n">
-        <v>2.21</v>
+        <v>0.034</v>
       </c>
       <c r="P10" t="n">
-        <v>4412.21565</v>
+        <v>-0.8616352201257862</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37155</v>
+        <v>51.7697</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0288</v>
+        <v>0.0146</v>
       </c>
       <c r="S10" t="n">
-        <v>42.246</v>
+        <v>-2.1349</v>
       </c>
       <c r="T10" t="n">
-        <v>17.7551</v>
+        <v>-5062.97</v>
       </c>
       <c r="U10" t="n">
-        <v>9.110799999999999</v>
+        <v>1.4856</v>
       </c>
       <c r="V10" t="n">
-        <v>3.43785</v>
+        <v>-104.6802</v>
       </c>
       <c r="W10" t="n">
-        <v>28.613</v>
+        <v>-52.0058</v>
       </c>
       <c r="X10" t="n">
-        <v>29.148</v>
+        <v>-6.988688888888889</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.8228</v>
+        <v>1.131779833499056</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-2.472538023112223</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.282</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>6.309</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-1.9467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="G11" t="n">
-        <v>52.09737396240234</v>
+        <v>37.26234912872314</v>
       </c>
       <c r="H11" t="n">
-        <v>87.35701751708984</v>
+        <v>80.52378082275391</v>
       </c>
       <c r="I11" t="n">
-        <v>35.76179122924805</v>
+        <v>20.7527208328247</v>
       </c>
       <c r="J11" t="n">
-        <v>37.33011245727539</v>
+        <v>10.96345520019531</v>
       </c>
       <c r="K11" t="n">
-        <v>1230.3059886868</v>
+        <v>214.9213134732681</v>
       </c>
       <c r="L11" t="n">
-        <v>3155.928099594777</v>
+        <v>874.1352198345303</v>
       </c>
       <c r="M11" t="n">
-        <v>3110.174051335954</v>
+        <v>1602.770123028451</v>
       </c>
       <c r="N11" t="n">
-        <v>141399.3776496917</v>
+        <v>51738.48438511141</v>
       </c>
       <c r="O11" t="n">
-        <v>5.18</v>
+        <v>0.94575</v>
       </c>
       <c r="P11" t="n">
-        <v>12489.0822</v>
+        <v>-0.1540588297348618</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.8999</v>
+        <v>1836.96855</v>
       </c>
       <c r="R11" t="n">
-        <v>0.076</v>
+        <v>0.6175250000000001</v>
       </c>
       <c r="S11" t="n">
-        <v>208.333</v>
+        <v>0.0076</v>
       </c>
       <c r="T11" t="n">
-        <v>31.5258</v>
+        <v>-28.302</v>
       </c>
       <c r="U11" t="n">
-        <v>16.673525</v>
+        <v>12.006025</v>
       </c>
       <c r="V11" t="n">
-        <v>8.079174999999999</v>
+        <v>3.368275</v>
       </c>
       <c r="W11" t="n">
-        <v>40.17</v>
+        <v>0.9405250000000001</v>
       </c>
       <c r="X11" t="n">
-        <v>41.275</v>
+        <v>2.153745454545455</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.4682</v>
+        <v>4.315479600075369</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.5754313031398341</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>21.54</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>22.509</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.388475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="G12" t="n">
+        <v>45.17654037475586</v>
+      </c>
+      <c r="H12" t="n">
+        <v>81.09572601318359</v>
+      </c>
+      <c r="I12" t="n">
+        <v>28.2496976852417</v>
+      </c>
+      <c r="J12" t="n">
+        <v>23.54273700714111</v>
+      </c>
+      <c r="K12" t="n">
+        <v>686.6484460619868</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1967.157085152976</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2271.071180919243</v>
+      </c>
+      <c r="N12" t="n">
+        <v>92201.91518611967</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2.215</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.0217099933721187</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4422.5297</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.3672</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.02815</v>
+      </c>
+      <c r="T12" t="n">
+        <v>44.426</v>
+      </c>
+      <c r="U12" t="n">
+        <v>18.19295</v>
+      </c>
+      <c r="V12" t="n">
+        <v>9.050999999999998</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3.33605</v>
+      </c>
+      <c r="X12" t="n">
+        <v>4.642181818181817</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>6.740408694992887</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.2138141168242187</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>29.471</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>30.089</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.85095</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G13" t="n">
+        <v>51.4083080291748</v>
+      </c>
+      <c r="H13" t="n">
+        <v>87.35701751708984</v>
+      </c>
+      <c r="I13" t="n">
+        <v>35.27811431884766</v>
+      </c>
+      <c r="J13" t="n">
+        <v>35.44246292114258</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1194.653557449398</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3043.80143741209</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3067.960666942476</v>
+      </c>
+      <c r="N13" t="n">
+        <v>135862.6147900774</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.09960852131278397</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>12412.4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.8999</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.07479999999999999</v>
+      </c>
+      <c r="T13" t="n">
+        <v>212.1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>33.041075</v>
+      </c>
+      <c r="V13" t="n">
+        <v>16.5479</v>
+      </c>
+      <c r="W13" t="n">
+        <v>8.066699999999999</v>
+      </c>
+      <c r="X13" t="n">
+        <v>6.294290909090908</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9.839678109478088</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.5309251018284236</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>41.5605</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>42.453</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1.51455</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
           <t>max</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
         <v>11</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E14" t="n">
         <v>2023</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G14" t="n">
         <v>70.63675689697266</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H14" t="n">
         <v>96.11679840087891</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I14" t="n">
         <v>60.5501823425293</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J14" t="n">
         <v>77.80126953125</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K14" t="n">
         <v>3579.258572936088</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L14" t="n">
         <v>6961.288385393796</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M14" t="n">
         <v>5819.889669353346</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N14" t="n">
         <v>352445.7310271598</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O14" t="n">
         <v>147.4</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P14" t="n">
+        <v>7.838905775075988</v>
+      </c>
+      <c r="Q14" t="n">
         <v>106709.0518</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R14" t="n">
         <v>69.78279999999999</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S14" t="n">
         <v>1.2059</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T14" t="n">
         <v>15821.933</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U14" t="n">
         <v>1480.1865</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V14" t="n">
         <v>284.5308</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W14" t="n">
         <v>69.8304</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X14" t="n">
+        <v>19.66665714285714</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>43.03061954484106</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>3.507019664260518</v>
+      </c>
+      <c r="AA14" t="n">
         <v>157.6</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AB14" t="n">
         <v>137.033</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AC14" t="n">
         <v>13.1634</v>
       </c>
     </row>
@@ -1248,27 +1385,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>sec_no</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>tkr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>2017</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
@@ -1276,8 +1413,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
@@ -1285,8 +1422,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
@@ -1294,8 +1431,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
@@ -1303,8 +1440,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
@@ -1312,8 +1449,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
@@ -1321,8 +1458,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
@@ -1330,8 +1467,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
@@ -1339,8 +1476,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
@@ -1348,8 +1485,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
@@ -1357,8 +1494,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="5" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
@@ -1366,10 +1503,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
@@ -1377,8 +1514,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="4" t="n"/>
+      <c r="B14" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C14" t="n">
@@ -1386,8 +1523,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="2" t="n">
+      <c r="A15" s="4" t="n"/>
+      <c r="B15" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C15" t="n">
@@ -1395,8 +1532,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="2" t="n">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C16" t="n">
@@ -1404,8 +1541,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="2" t="n">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C17" t="n">
@@ -1413,8 +1550,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="2" t="n">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C18" t="n">
@@ -1422,8 +1559,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="2" t="n">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C19" t="n">
@@ -1431,8 +1568,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="2" t="n">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C20" t="n">
@@ -1440,8 +1577,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="2" t="n">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C21" t="n">
@@ -1449,8 +1586,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="2" t="n">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C22" t="n">
@@ -1458,8 +1595,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="2" t="n">
+      <c r="A23" s="5" t="n"/>
+      <c r="B23" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C23" t="n">
@@ -1467,10 +1604,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="B24" s="2" t="n">
+      <c r="B24" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C24" t="n">
@@ -1478,8 +1615,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="2" t="n">
+      <c r="A25" s="4" t="n"/>
+      <c r="B25" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C25" t="n">
@@ -1487,8 +1624,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="2" t="n">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C26" t="n">
@@ -1496,8 +1633,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="2" t="n">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C27" t="n">
@@ -1505,8 +1642,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="2" t="n">
+      <c r="A28" s="4" t="n"/>
+      <c r="B28" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C28" t="n">
@@ -1514,8 +1651,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="2" t="n">
+      <c r="A29" s="4" t="n"/>
+      <c r="B29" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C29" t="n">
@@ -1523,8 +1660,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="2" t="n">
+      <c r="A30" s="4" t="n"/>
+      <c r="B30" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C30" t="n">
@@ -1532,8 +1669,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="2" t="n">
+      <c r="A31" s="4" t="n"/>
+      <c r="B31" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C31" t="n">
@@ -1541,8 +1678,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="2" t="n">
+      <c r="A32" s="4" t="n"/>
+      <c r="B32" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C32" t="n">
@@ -1550,8 +1687,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="2" t="n">
+      <c r="A33" s="4" t="n"/>
+      <c r="B33" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C33" t="n">
@@ -1559,8 +1696,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="n"/>
-      <c r="B34" s="2" t="n">
+      <c r="A34" s="5" t="n"/>
+      <c r="B34" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C34" t="n">
@@ -1568,10 +1705,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="B35" s="2" t="n">
+      <c r="B35" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C35" t="n">
@@ -1579,8 +1716,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="2" t="n">
+      <c r="A36" s="4" t="n"/>
+      <c r="B36" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C36" t="n">
@@ -1588,8 +1725,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="2" t="n">
+      <c r="A37" s="4" t="n"/>
+      <c r="B37" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C37" t="n">
@@ -1597,8 +1734,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="2" t="n">
+      <c r="A38" s="4" t="n"/>
+      <c r="B38" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C38" t="n">
@@ -1606,8 +1743,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="2" t="n">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C39" t="n">
@@ -1615,8 +1752,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="2" t="n">
+      <c r="A40" s="4" t="n"/>
+      <c r="B40" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C40" t="n">
@@ -1624,8 +1761,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="2" t="n">
+      <c r="A41" s="4" t="n"/>
+      <c r="B41" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C41" t="n">
@@ -1633,8 +1770,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="2" t="n">
+      <c r="A42" s="4" t="n"/>
+      <c r="B42" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C42" t="n">
@@ -1642,8 +1779,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="2" t="n">
+      <c r="A43" s="4" t="n"/>
+      <c r="B43" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C43" t="n">
@@ -1651,8 +1788,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="2" t="n">
+      <c r="A44" s="4" t="n"/>
+      <c r="B44" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C44" t="n">
@@ -1660,8 +1797,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="n"/>
-      <c r="B45" s="2" t="n">
+      <c r="A45" s="5" t="n"/>
+      <c r="B45" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C45" t="n">
@@ -1669,10 +1806,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="B46" s="2" t="n">
+      <c r="B46" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C46" t="n">
@@ -1680,8 +1817,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="2" t="n">
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C47" t="n">
@@ -1689,8 +1826,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="2" t="n">
+      <c r="A48" s="4" t="n"/>
+      <c r="B48" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C48" t="n">
@@ -1698,8 +1835,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="2" t="n">
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C49" t="n">
@@ -1707,8 +1844,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="2" t="n">
+      <c r="A50" s="4" t="n"/>
+      <c r="B50" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C50" t="n">
@@ -1716,8 +1853,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="2" t="n">
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C51" t="n">
@@ -1725,8 +1862,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="2" t="n">
+      <c r="A52" s="4" t="n"/>
+      <c r="B52" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C52" t="n">
@@ -1734,8 +1871,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
-      <c r="B53" s="2" t="n">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C53" t="n">
@@ -1743,8 +1880,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="2" t="n">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C54" t="n">
@@ -1752,8 +1889,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="2" t="n">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C55" t="n">
@@ -1761,8 +1898,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="n"/>
-      <c r="B56" s="2" t="n">
+      <c r="A56" s="5" t="n"/>
+      <c r="B56" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C56" t="n">
@@ -1770,10 +1907,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="B57" s="2" t="n">
+      <c r="B57" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C57" t="n">
@@ -1781,8 +1918,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
-      <c r="B58" s="2" t="n">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C58" t="n">
@@ -1790,8 +1927,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n"/>
-      <c r="B59" s="2" t="n">
+      <c r="A59" s="4" t="n"/>
+      <c r="B59" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C59" t="n">
@@ -1799,8 +1936,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n"/>
-      <c r="B60" s="2" t="n">
+      <c r="A60" s="4" t="n"/>
+      <c r="B60" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C60" t="n">
@@ -1808,8 +1945,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n"/>
-      <c r="B61" s="2" t="n">
+      <c r="A61" s="4" t="n"/>
+      <c r="B61" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C61" t="n">
@@ -1817,8 +1954,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n"/>
-      <c r="B62" s="2" t="n">
+      <c r="A62" s="4" t="n"/>
+      <c r="B62" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C62" t="n">
@@ -1826,8 +1963,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n"/>
-      <c r="B63" s="2" t="n">
+      <c r="A63" s="4" t="n"/>
+      <c r="B63" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C63" t="n">
@@ -1835,8 +1972,8 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n"/>
-      <c r="B64" s="2" t="n">
+      <c r="A64" s="4" t="n"/>
+      <c r="B64" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C64" t="n">
@@ -1844,8 +1981,8 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n"/>
-      <c r="B65" s="2" t="n">
+      <c r="A65" s="4" t="n"/>
+      <c r="B65" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C65" t="n">
@@ -1853,8 +1990,8 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n"/>
-      <c r="B66" s="2" t="n">
+      <c r="A66" s="4" t="n"/>
+      <c r="B66" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C66" t="n">
@@ -1862,8 +1999,8 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="n"/>
-      <c r="B67" s="2" t="n">
+      <c r="A67" s="5" t="n"/>
+      <c r="B67" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C67" t="n">
@@ -1871,10 +2008,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="B68" s="2" t="n">
+      <c r="B68" s="3" t="n">
         <v>1</v>
       </c>
       <c r="C68" t="n">
@@ -1882,8 +2019,8 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n"/>
-      <c r="B69" s="2" t="n">
+      <c r="A69" s="4" t="n"/>
+      <c r="B69" s="3" t="n">
         <v>2</v>
       </c>
       <c r="C69" t="n">
@@ -1891,8 +2028,8 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n"/>
-      <c r="B70" s="2" t="n">
+      <c r="A70" s="4" t="n"/>
+      <c r="B70" s="3" t="n">
         <v>3</v>
       </c>
       <c r="C70" t="n">
@@ -1900,8 +2037,8 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n"/>
-      <c r="B71" s="2" t="n">
+      <c r="A71" s="4" t="n"/>
+      <c r="B71" s="3" t="n">
         <v>4</v>
       </c>
       <c r="C71" t="n">
@@ -1909,8 +2046,8 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n"/>
-      <c r="B72" s="2" t="n">
+      <c r="A72" s="4" t="n"/>
+      <c r="B72" s="3" t="n">
         <v>5</v>
       </c>
       <c r="C72" t="n">
@@ -1918,8 +2055,8 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n"/>
-      <c r="B73" s="2" t="n">
+      <c r="A73" s="4" t="n"/>
+      <c r="B73" s="3" t="n">
         <v>6</v>
       </c>
       <c r="C73" t="n">
@@ -1927,8 +2064,8 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="2" t="n">
+      <c r="A74" s="4" t="n"/>
+      <c r="B74" s="3" t="n">
         <v>7</v>
       </c>
       <c r="C74" t="n">
@@ -1936,8 +2073,8 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n"/>
-      <c r="B75" s="2" t="n">
+      <c r="A75" s="4" t="n"/>
+      <c r="B75" s="3" t="n">
         <v>8</v>
       </c>
       <c r="C75" t="n">
@@ -1945,8 +2082,8 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n"/>
-      <c r="B76" s="2" t="n">
+      <c r="A76" s="4" t="n"/>
+      <c r="B76" s="3" t="n">
         <v>9</v>
       </c>
       <c r="C76" t="n">
@@ -1954,8 +2091,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n"/>
-      <c r="B77" s="2" t="n">
+      <c r="A77" s="4" t="n"/>
+      <c r="B77" s="3" t="n">
         <v>10</v>
       </c>
       <c r="C77" t="n">
@@ -1963,8 +2100,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="n"/>
-      <c r="B78" s="2" t="n">
+      <c r="A78" s="5" t="n"/>
+      <c r="B78" s="3" t="n">
         <v>11</v>
       </c>
       <c r="C78" t="n">
@@ -1991,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,12 +2137,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>variable</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>kurtosis</t>
         </is>
@@ -2018,7 +2155,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.992772569992233</v>
+        <v>-0.9916682354209407</v>
       </c>
     </row>
     <row r="3">
@@ -2028,7 +2165,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.452051079385524</v>
+        <v>-1.250295477940023</v>
       </c>
     </row>
     <row r="4">
@@ -2038,7 +2175,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4605858850635571</v>
+        <v>-0.3924189876221051</v>
       </c>
     </row>
     <row r="5">
@@ -2048,7 +2185,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6716442216187515</v>
+        <v>0.7939040608543122</v>
       </c>
     </row>
     <row r="6">
@@ -2058,7 +2195,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2742675807779147</v>
+        <v>-0.3102147731111025</v>
       </c>
     </row>
     <row r="7">
@@ -2068,7 +2205,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.255303861536615</v>
+        <v>-0.1421644365442294</v>
       </c>
     </row>
     <row r="8">
@@ -2078,7 +2215,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.5935867746915</v>
+        <v>1.907392233903652</v>
       </c>
     </row>
     <row r="9">
@@ -2088,7 +2225,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05311565959405407</v>
+        <v>0.2001825374168864</v>
       </c>
     </row>
     <row r="10">
@@ -2098,7 +2235,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2433383729703102</v>
+        <v>-0.281894996923457</v>
       </c>
     </row>
     <row r="11">
@@ -2108,7 +2245,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.562220032866133</v>
+        <v>1.856189942140554</v>
       </c>
     </row>
     <row r="12">
@@ -2118,117 +2255,157 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75.98129937271617</v>
+        <v>76.39246962599208</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>historical_market_cap</t>
+          <t>ret</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.192000546243825</v>
+        <v>76.82671982474433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>trail_12m_sales_per_sh</t>
+          <t>historical_market_cap</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.21774903152171</v>
+        <v>9.279714347944601</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>is_eps</t>
+          <t>trail_12m_sales_per_sh</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>55.36406984508107</v>
+        <v>34.68905076946994</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>fcf</t>
+          <t>is_eps</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.89582772927371</v>
+        <v>54.21706551567849</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pe</t>
+          <t>fcf</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>105.4956576574011</v>
+        <v>52.48146730842698</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>return_com_eqy</t>
+          <t>pe</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>21.40004947385345</v>
+        <v>95.93439366021842</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>roa</t>
+          <t>return_com_eqy</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>9.367617714889231</v>
+        <v>20.55666065181117</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VOLATILITY_180D</t>
+          <t>roa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.16902314742184</v>
+        <v>9.872199111808632</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>volatility_360d</t>
+          <t>roa_sec_mean</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.746624164303338</v>
+        <v>1.193059030059481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>beta</t>
+          <t>roa_sec_sd</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.0733515266354</v>
+        <v>12.45939355035138</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>roa_z</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.8065285415534844</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vol_180d</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>8.871949067491059</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vol_360d</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5.117981079883098</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>21.96487121870943</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>kurtosis_mean</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>18.95740559754215</v>
+      <c r="B27" t="n">
+        <v>19.28210140683584</v>
       </c>
     </row>
   </sheetData>
